--- a/biology/Botanique/Castanospermum_australe/Castanospermum_australe.xlsx
+++ b/biology/Botanique/Castanospermum_australe/Castanospermum_australe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le châtaignier d'Australie ou Châtaignier de Morton (Castanospermum australe) est la seule espèce du genre Castanospermum, dans la famille des Fabaceae. Il est présent dans l'écozone australasienne (nord-est de l'Australie, à Vanuatu et en Nouvelle-Guinée).
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le châtaignier d'Australie est un arbre au port érigé, élancé avec une couronne dense en forme de dôme, 10 à 12 m (35 - 40 m dans son élément).
 Ses grandes feuilles composées mesurent 30 à 45 cm. Elles sont pennées à folioles oblongues, d'un vert sombre, luisantes, semi-caduques.
@@ -545,7 +559,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son bois est un excellent bois d'œuvre.
 Ses graines toxiques sont cependant consommées par les aborigènes en cas de pénurie, après un très long lavage suivi de meulage, séchage et cuisson.
@@ -579,7 +595,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante qui pousse naturellement en forêt tempérée humide est aussi utilisée comme plante d'appartement (connue sous un nom lucky bean, « fève porte-bonheur »). Elle a besoin d'une exposition lumineuse et se reproduit par semis de graines fraiches.
 </t>
